--- a/Datos de docentes.xlsx
+++ b/Datos de docentes.xlsx
@@ -503,12 +503,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Magiser</t>
+          <t>Licenciado</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Adjunto</t>
+          <t>Regular</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Magiser</t>
+          <t>Licenciado</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -544,14 +544,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>197050</v>
+        <v>198536</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Adjunto</t>
+          <t>Regular</t>
         </is>
       </c>
     </row>
@@ -570,23 +570,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Macarena</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>184884</v>
+        <v>189412</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Licenciado</t>
+          <t>Magiser</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Regular</t>
+          <t>Adjunto</t>
         </is>
       </c>
     </row>
@@ -596,18 +596,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Macarena</t>
+          <t>Magnus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>189412</v>
+        <v>197056</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Magiser</t>
+          <t>Licenciado</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -622,14 +622,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n">
-        <v>198052</v>
+        <v>197750</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -648,23 +648,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ximena</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>198352</v>
+        <v>198886</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Magiser</t>
+          <t>Licenciado</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Regular</t>
+          <t>Adjunto</t>
         </is>
       </c>
     </row>

--- a/Datos de docentes.xlsx
+++ b/Datos de docentes.xlsx
@@ -492,23 +492,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antonia</t>
+          <t>Anastasia</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>195832</v>
+        <v>196542</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Licenciado</t>
+          <t>Doctorado</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Regular</t>
+          <t>Adjunto</t>
         </is>
       </c>
     </row>
@@ -518,23 +518,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carolina</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>193565</v>
+        <v>197050</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Licenciado</t>
+          <t>Magiser</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Adjunto</t>
+          <t>Regular</t>
         </is>
       </c>
     </row>
@@ -544,18 +544,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>198536</v>
+        <v>184884</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Licenciado</t>
+          <t>Doctorado</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -570,18 +570,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Macarena</t>
+          <t>Leonor</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>189412</v>
+        <v>198410</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Magiser</t>
+          <t>Doctorado</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -596,18 +596,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Magnus</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>197056</v>
+        <v>198536</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Licenciado</t>
+          <t>Doctorado</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -622,23 +622,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Macarena</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
-        <v>197750</v>
+        <v>189412</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Magiser</t>
+          <t>Licenciado</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Regular</t>
+          <t>Adjunto</t>
         </is>
       </c>
     </row>
@@ -648,14 +648,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Rodrigo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>198886</v>
+        <v>199956</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
